--- a/extraFiles/english.xlsx
+++ b/extraFiles/english.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09567DA-D11C-49D8-9157-DE0AE098C3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52774D67-3558-4E13-B0F0-5FF2280E9000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="723" firstSheet="4" activeTab="12" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="723" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Button" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="180">
   <si>
     <t>tpg_Map</t>
   </si>
@@ -575,6 +575,18 @@
   </si>
   <si>
     <t>Paste All Geodata</t>
+  </si>
+  <si>
+    <t>btn_RemoveGeoData</t>
+  </si>
+  <si>
+    <t>Remove GeoData</t>
+  </si>
+  <si>
+    <t>Edit File</t>
+  </si>
+  <si>
+    <t>btn_EditFile</t>
   </si>
 </sst>
 </file>
@@ -967,11 +979,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D057A75-CE07-4B70-81C2-6848CE46E100}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8:C9"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1070,6 +1082,22 @@
       </c>
       <c r="C11" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9929B90B-AD05-4D51-B814-E736A13F0538}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
@@ -1415,7 +1443,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C32"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/extraFiles/english.xlsx
+++ b/extraFiles/english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52774D67-3558-4E13-B0F0-5FF2280E9000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADDC43B-1207-44F7-B63F-4F3B863B7CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="723" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
   </bookViews>
@@ -580,13 +580,13 @@
     <t>btn_RemoveGeoData</t>
   </si>
   <si>
-    <t>Remove GeoData</t>
-  </si>
-  <si>
     <t>Edit File</t>
   </si>
   <si>
     <t>btn_EditFile</t>
+  </si>
+  <si>
+    <t>Remove All Location Data</t>
   </si>
 </sst>
 </file>
@@ -983,7 +983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -1097,7 +1097,7 @@
         <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/extraFiles/english.xlsx
+++ b/extraFiles/english.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="g:\My Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADDC43B-1207-44F7-B63F-4F3B863B7CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C5DB26-E407-4BF4-B218-8CB611EE990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="723" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="723" activeTab="6" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Button" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="252">
   <si>
     <t>tpg_Map</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Write</t>
   </si>
   <si>
-    <t>mbx</t>
-  </si>
-  <si>
     <t>Cancel</t>
   </si>
   <si>
@@ -587,6 +584,230 @@
   </si>
   <si>
     <t>Remove All Location Data</t>
+  </si>
+  <si>
+    <t>This needs to have numbers only. Will default to zero.</t>
+  </si>
+  <si>
+    <t>The app encountered errors communicating with the API. If you got an Unauthorised error, pls set your username as password in the settings.</t>
+  </si>
+  <si>
+    <t>Data Updated.</t>
+  </si>
+  <si>
+    <t>Your files seem to have disappeared.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error loading webview2 - Have you installed it?: </t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorInitializeComponent</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorDoubleBuffer</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorLanguageFileColumnHeaders</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorClearingFileDataQTables</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorResizingColumns</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorSettingStartupFolder</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorInitializeWebViewEnsureCoreWebView2Async</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorInitializeWebViewIsWebMessageEnabled</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorInitializeWebViewReadHTMLFile</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorInitializeWebViewParseCoordsFromHTMLFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will be a bug.  Please file an issue on github and that the 'sender' was: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed to read default values from SQL (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loading data from SQL Failed (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created but can't write SQLite database (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't create SQLite database (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoubleBuffer Error (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error clearing the filedata-Q tables (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resizing Columns failed (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting Default Startup folder failed (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in frm_mainApp.InitializeComponent (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in frm_mainApp.InitialiseWebView (await wbv_MapArea.EnsureCoreWebView2Async(c2wv)) (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in frm_mainApp.InitialiseWebView (IsWebMessageEnabled) (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in frm_mainApp.InitialiseWebView (reading HTMLCode file) (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in frm_mainApp.InitialiseWebView (parsing coordinates from HTMLCode file) (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorInitializeWebViewReplaceStringInHTMLFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in frm_mainApp.InitialiseWebView (replacing constants in HTMLCode file) (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorInitializeWebViewNavigateToStringInHTMLFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in frm_mainApp.InitialiseWebView (NavigateToString in HTMLCode file) (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorInitializeWebViewWebMessageReceived</t>
+  </si>
+  <si>
+    <t>Some data has been changed - want to save? 
+Data will be discarded if you click No</t>
+  </si>
+  <si>
+    <t>Do you want to also assign Altitude &amp; Toponomy values?
+If you pick No, your lat/long data may become out of sync with any embedded toponomy data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in frm_mainApp.NavigateMapGo (string HTMLCode) (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorNavigateMapGoHTMLCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The folder you entered doesn't seem valid. (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was an error reading the language file and assigning columnheaders (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorInvalidFolder</t>
+  </si>
+  <si>
+    <t>Your folder and/or file list contains nonstandard characters.
+These will need to be run in 'compatibility mode', which is slower. 
+Suggesting renaming your path and/or files if you have a large number of item.
+Press OK to continue and be reminded again or Cancel to continue and not be reminded again about this.</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_QuestionDontShowIncompatibleFileWarningAgain</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_QuestionAddToponomy</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_QuestionFileQIsNotEmpty</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorCantCreateSQLiteDB</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorCantWriteSQLiteDB</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorCantLoadSQLiteDB</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorCantReadDefaultSQLiteDB</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorCantLoadWebView2</t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_ErrorFileGoneMissing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File no longer appears to exist: </t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_WarningNoItemSelected</t>
+  </si>
+  <si>
+    <t>No Item selected.</t>
+  </si>
+  <si>
+    <t>mbx_frm_editFileData_WarningLatLongMustBeNumbers</t>
+  </si>
+  <si>
+    <t>mbx_frm_editFileData_ErrorAPIError</t>
+  </si>
+  <si>
+    <t>mbx_frm_editFileData_ErrorInvalidSender</t>
+  </si>
+  <si>
+    <t>mbx_frm_editFileData_WarningFileDisappeared</t>
+  </si>
+  <si>
+    <t>mbx_frm_editFileData_InfoDataUpdated</t>
+  </si>
+  <si>
+    <t>mbx_Helper_WarningNoARCGISKey</t>
+  </si>
+  <si>
+    <t>You'll need to provide an ArcGIS API Key in the Settings for the app to work properly.</t>
+  </si>
+  <si>
+    <t>mbx_Helper_ErrorAsyncExifToolExecuteAsyncFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asyncExifTool.ExecuteAsync failed (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t>mbx_Helper_ErrorCantReadDefaultSQLiteDB</t>
+  </si>
+  <si>
+    <t>mbx_Helper_WarningGeoNamesAPIResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeoNames API Returned the following response: </t>
+  </si>
+  <si>
+    <t>mbx_Helper_WarningFileDisappeared</t>
+  </si>
+  <si>
+    <t>mbx_Helper_QuestionFileQIsNotEmpty</t>
+  </si>
+  <si>
+    <t>mbx_Helper_WarningTooManyFilesSelected</t>
+  </si>
+  <si>
+    <t>This will only work if you have one and only one file selected.</t>
+  </si>
+  <si>
+    <t>mbx_Helper_WarningNothingToPaste</t>
+  </si>
+  <si>
+    <t>Nothing to Paste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while performing  wbv_MapArea_WebMessageReceived (Please file an issue on github): </t>
   </si>
 </sst>
 </file>
@@ -657,13 +878,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,7 +1208,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
@@ -1009,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1017,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1025,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1033,71 +1260,71 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" t="s">
         <v>170</v>
-      </c>
-      <c r="C9" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" t="s">
         <v>158</v>
-      </c>
-      <c r="C10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
         <v>167</v>
-      </c>
-      <c r="C11" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1108,6 +1335,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474FB6B0-1C4C-4EF7-88E9-FF86336714E7}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1135,10 +1363,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1186,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1194,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1202,15 +1430,15 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1251,7 +1479,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1259,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1269,6 +1497,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9929B90B-AD05-4D51-B814-E736A13F0538}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1296,82 +1525,82 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
         <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
         <v>165</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1641,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1420,15 +1649,15 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
         <v>161</v>
-      </c>
-      <c r="C4" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1466,15 +1695,15 @@
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1482,7 +1711,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>49</v>
@@ -1490,7 +1719,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
@@ -1498,7 +1727,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
@@ -1506,7 +1735,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>46</v>
@@ -1514,7 +1743,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>45</v>
@@ -1522,7 +1751,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -1530,7 +1759,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -1538,7 +1767,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
@@ -1546,7 +1775,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
@@ -1554,7 +1783,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>40</v>
@@ -1562,7 +1791,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
@@ -1570,7 +1799,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -1578,7 +1807,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>37</v>
@@ -1586,7 +1815,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -1594,7 +1823,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -1602,7 +1831,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1610,7 +1839,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -1618,7 +1847,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -1626,7 +1855,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -1634,7 +1863,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1642,7 +1871,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -1650,7 +1879,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -1658,7 +1887,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -1666,7 +1895,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
@@ -1674,7 +1903,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>25</v>
@@ -1682,7 +1911,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
@@ -1690,7 +1919,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1698,7 +1927,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -1706,7 +1935,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -1747,10 +1976,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1760,6 +1989,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D1DBDD-2581-4D8C-8B5D-1ABD29610966}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1786,18 +2016,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1838,7 +2068,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1846,7 +2076,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1854,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1881,7 +2111,7 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -1892,7 +2122,7 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -1900,10 +2130,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
         <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -1911,28 +2141,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
         <v>108</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
         <v>114</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>50</v>
@@ -1940,7 +2170,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>49</v>
@@ -1948,7 +2178,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>48</v>
@@ -1956,7 +2186,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>47</v>
@@ -1964,7 +2194,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>46</v>
@@ -1972,7 +2202,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>45</v>
@@ -1980,7 +2210,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>44</v>
@@ -1988,7 +2218,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>43</v>
@@ -1996,7 +2226,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>42</v>
@@ -2004,7 +2234,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>41</v>
@@ -2012,7 +2242,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>40</v>
@@ -2020,7 +2250,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>39</v>
@@ -2028,7 +2258,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>38</v>
@@ -2036,7 +2266,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>37</v>
@@ -2044,7 +2274,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>34</v>
@@ -2052,7 +2282,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>33</v>
@@ -2060,7 +2290,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>32</v>
@@ -2068,7 +2298,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>31</v>
@@ -2076,7 +2306,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>30</v>
@@ -2090,18 +2320,18 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA71A6DB-F956-47B0-AA2F-995ED03DF664}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.15234375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2111,13 +2341,312 @@
       <c r="B1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>233</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2157,7 +2686,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2197,15 +2726,15 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/extraFiles/english.xlsx
+++ b/extraFiles/english.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="g:\My Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C5DB26-E407-4BF4-B218-8CB611EE990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A95FBF-9641-41CB-ACE0-4ED94EEA1929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="723" activeTab="6" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="260">
   <si>
     <t>tpg_Map</t>
   </si>
@@ -808,6 +808,35 @@
   </si>
   <si>
     <t xml:space="preserve">Error while performing  wbv_MapArea_WebMessageReceived (Please file an issue on github): </t>
+  </si>
+  <si>
+    <t>mbx_Helper_WarningExifToolVerAPIResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExifToolVerAPIResponse API Returned the following response: </t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_InfoNewExifToolVersionExists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a new exifTool version available for download. 
+If you click Yes, your default browser will open to exiftool.org where you can download manually. If you click No, this message will close (but will show again next time.)
+If you download, extract the zip file, rename exiftool(-k).exe to exiftool.exe and replace the current file in your GeoTagNinja installation folder (most likely Program Files.)
+New version: </t>
+  </si>
+  <si>
+    <t>mbx_Helper_WarningGTNVerAPIResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub API Returned the following response: </t>
+  </si>
+  <si>
+    <t>mbx_frm_mainApp_InfoNewGTNVersionExists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a new GeoTagNinja version available for download. 
+If you click Yes, your default browser will open directly to the release's installer link on GitHub, which you can then install manually. If you click No, this message will close (but will show again next time.)
+New version: </t>
   </si>
 </sst>
 </file>
@@ -2320,11 +2349,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA71A6DB-F956-47B0-AA2F-995ED03DF664}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2647,6 +2676,38 @@
       </c>
       <c r="C39" s="6" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/extraFiles/english.xlsx
+++ b/extraFiles/english.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A95FBF-9641-41CB-ACE0-4ED94EEA1929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3922DC62-E45E-4DA8-9168-2DA74C9A7197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="723" activeTab="6" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="723" activeTab="2" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Button" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="266">
   <si>
     <t>tpg_Map</t>
   </si>
@@ -837,6 +837,24 @@
     <t xml:space="preserve">There is a new GeoTagNinja version available for download. 
 If you click Yes, your default browser will open directly to the release's installer link on GitHub, which you can then install manually. If you click No, this message will close (but will show again next time.)
 New version: </t>
+  </si>
+  <si>
+    <t>clh_ModifyDate</t>
+  </si>
+  <si>
+    <t>clh_CreateDate</t>
+  </si>
+  <si>
+    <t>clh_OffsetTime</t>
+  </si>
+  <si>
+    <t>Modify Date</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Time Offset</t>
   </si>
 </sst>
 </file>
@@ -1697,11 +1715,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12E35C1-6424-48E0-8B92-C8A8C178A410}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1968,6 +1986,30 @@
       </c>
       <c r="C32" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2393,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>

--- a/extraFiles/english.xlsx
+++ b/extraFiles/english.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25615"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3922DC62-E45E-4DA8-9168-2DA74C9A7197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6734CE6F-77A3-4FA9-8EC9-FC91E4DCE766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="723" activeTab="2" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13474" tabRatio="723" activeTab="4" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Button" sheetId="1" r:id="rId1"/>
     <sheet name="CheckBox" sheetId="4" r:id="rId2"/>
     <sheet name="ColumnHeader" sheetId="6" r:id="rId3"/>
     <sheet name="FileBrowser" sheetId="11" r:id="rId4"/>
-    <sheet name="GroupBox" sheetId="13" r:id="rId5"/>
-    <sheet name="Label" sheetId="3" r:id="rId6"/>
-    <sheet name="messageBox" sheetId="2" r:id="rId7"/>
-    <sheet name="PictureBox" sheetId="9" r:id="rId8"/>
-    <sheet name="RichTextBox" sheetId="5" r:id="rId9"/>
-    <sheet name="TabControl" sheetId="12" r:id="rId10"/>
-    <sheet name="TabPage" sheetId="8" r:id="rId11"/>
-    <sheet name="ToolStrip" sheetId="10" r:id="rId12"/>
-    <sheet name="ToolStripMenuItem" sheetId="14" r:id="rId13"/>
+    <sheet name="Form" sheetId="16" r:id="rId5"/>
+    <sheet name="GroupBox" sheetId="13" r:id="rId6"/>
+    <sheet name="Label" sheetId="3" r:id="rId7"/>
+    <sheet name="messageBox" sheetId="2" r:id="rId8"/>
+    <sheet name="PictureBox" sheetId="9" r:id="rId9"/>
+    <sheet name="RichTextBox" sheetId="5" r:id="rId10"/>
+    <sheet name="TabControl" sheetId="12" r:id="rId11"/>
+    <sheet name="TabPage" sheetId="8" r:id="rId12"/>
+    <sheet name="ToolStrip" sheetId="10" r:id="rId13"/>
+    <sheet name="ToolStripMenuItem" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="268">
   <si>
     <t>tpg_Map</t>
   </si>
@@ -855,6 +856,12 @@
   </si>
   <si>
     <t>Time Offset</t>
+  </si>
+  <si>
+    <t>frm_Settings</t>
+  </si>
+  <si>
+    <t>frm_editFiledata</t>
   </si>
 </sst>
 </file>
@@ -1381,6 +1388,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FBCB81-7530-4E24-8050-0BE2A14003FC}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.15234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474FB6B0-1C4C-4EF7-88E9-FF86336714E7}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C2"/>
@@ -1421,7 +1476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608740D4-3281-43A8-9891-68180F0D32F1}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:C6"/>
@@ -1493,7 +1548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3CA633-2131-4005-BBF5-FD4C3AB97D80}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C3"/>
@@ -1542,7 +1597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9929B90B-AD05-4D51-B814-E736A13F0538}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:C11"/>
@@ -1717,7 +1772,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
@@ -2024,7 +2079,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2059,6 +2114,54 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F7050C-96BB-4819-95C7-C8166110F99A}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D1DBDD-2581-4D8C-8B5D-1ABD29610966}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C3"/>
@@ -2106,7 +2209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF047657-9098-41C9-A35C-1E73DCC7355E}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C31"/>
@@ -2388,7 +2491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA71A6DB-F956-47B0-AA2F-995ED03DF664}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C43"/>
@@ -2757,7 +2860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B470A451-D858-45D6-889B-8EF1082E77B2}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C2"/>
@@ -2795,52 +2898,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FBCB81-7530-4E24-8050-0BE2A14003FC}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="20.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.15234375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/extraFiles/english.xlsx
+++ b/extraFiles/english.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6734CE6F-77A3-4FA9-8EC9-FC91E4DCE766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B66A96E-5999-4293-AA5D-8FB19D396CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13474" tabRatio="723" activeTab="4" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13474" tabRatio="723" activeTab="6" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Button" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="270">
   <si>
     <t>tpg_Map</t>
   </si>
@@ -862,6 +861,12 @@
   </si>
   <si>
     <t>frm_editFiledata</t>
+  </si>
+  <si>
+    <t>lbl_ResetMapToZero</t>
+  </si>
+  <si>
+    <t>Set Map to 0/0 if no GeoData</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F7050C-96BB-4819-95C7-C8166110F99A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -2212,11 +2217,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF047657-9098-41C9-A35C-1E73DCC7355E}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2484,6 +2489,14 @@
       </c>
       <c r="C31" s="5" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/extraFiles/english.xlsx
+++ b/extraFiles/english.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25729"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B66A96E-5999-4293-AA5D-8FB19D396CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A70B0-4673-4C7F-BEF1-21B09F1B3519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13474" tabRatio="723" activeTab="6" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="723" activeTab="7" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Button" sheetId="1" r:id="rId1"/>
@@ -692,10 +692,6 @@
 Data will be discarded if you click No</t>
   </si>
   <si>
-    <t>Do you want to also assign Altitude &amp; Toponomy values?
-If you pick No, your lat/long data may become out of sync with any embedded toponomy data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Error in frm_mainApp.NavigateMapGo (string HTMLCode) (Please file an issue on github): </t>
   </si>
   <si>
@@ -863,10 +859,15 @@
     <t>frm_editFiledata</t>
   </si>
   <si>
-    <t>lbl_ResetMapToZero</t>
-  </si>
-  <si>
     <t>Set Map to 0/0 if no GeoData</t>
+  </si>
+  <si>
+    <t>ckb_ResetMapToZero</t>
+  </si>
+  <si>
+    <t>Do you want to also assign Altitude &amp; Toponomy values?
+If you pick No, your lat/long data may become out of sync with any embedded toponomy data.
+If you click 'stop asking' it will take the answer as Yes and won't ask again this session. Restart to reset.</t>
   </si>
 </sst>
 </file>
@@ -1272,14 +1273,14 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.4609375" customWidth="1"/>
-    <col min="3" max="3" width="41.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -1402,13 +1403,13 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.15234375" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -1450,14 +1451,14 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.61328125" customWidth="1"/>
-    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1491,13 +1492,13 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.921875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1516,7 +1517,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -1563,14 +1564,14 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1612,14 +1613,14 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -1718,21 +1719,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4D1A38-DF6E-4C32-B78F-C0F0A755128B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3828125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1759,12 +1760,20 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>160</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1782,14 +1791,14 @@
       <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69140625" customWidth="1"/>
-    <col min="3" max="3" width="18.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>111</v>
       </c>
@@ -1808,7 +1817,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1816,7 +1825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1824,7 +1833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1840,7 +1849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1872,7 +1881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -1880,7 +1889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -1896,7 +1905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1904,7 +1913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1912,7 +1921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -1936,7 +1945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -1944,7 +1953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -1960,7 +1969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1976,7 +1985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -1992,7 +2001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2000,7 +2009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -2008,7 +2017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -2016,7 +2025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -2048,28 +2057,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>260</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>261</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>262</v>
-      </c>
-      <c r="C35" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2087,14 +2096,14 @@
       <selection pane="bottomLeft" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.61328125" customWidth="1"/>
-    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -2105,7 +2114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -2127,14 +2136,14 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -2145,17 +2154,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
@@ -2176,13 +2185,13 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3828125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2217,21 +2226,21 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF047657-9098-41C9-A35C-1E73DCC7355E}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.61328125" customWidth="1"/>
-    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2250,7 +2259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2258,7 +2267,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2266,7 +2275,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2282,7 +2291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2304,7 +2313,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2315,7 +2324,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -2339,7 +2348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -2347,7 +2356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -2355,7 +2364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -2363,7 +2372,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -2371,7 +2380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -2379,7 +2388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -2387,7 +2396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -2395,7 +2404,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -2403,7 +2412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -2411,7 +2420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -2419,7 +2428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -2427,7 +2436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -2435,7 +2444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -2443,7 +2452,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -2451,7 +2460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -2459,7 +2468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -2467,7 +2476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -2475,7 +2484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -2483,20 +2492,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>140</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2509,19 +2510,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.15234375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -2532,87 +2533,87 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>184</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -2636,7 +2637,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>192</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -2668,23 +2669,23 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>185</v>
       </c>
@@ -2692,15 +2693,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>186</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>187</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -2724,148 +2725,148 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="C31" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="6" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+      <c r="C33" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>242</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="6" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>245</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C38" s="6" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+      <c r="C39" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="6" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="116.6" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+      <c r="C41" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="6" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+      <c r="C42" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C42" s="6" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+      <c r="C43" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2883,13 +2884,13 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.4609375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>

--- a/extraFiles/english.xlsx
+++ b/extraFiles/english.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A70B0-4673-4C7F-BEF1-21B09F1B3519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4C042-198A-4EE1-BF74-F718EA66C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="723" activeTab="7" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="723" activeTab="1" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Button" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="276">
   <si>
     <t>tpg_Map</t>
   </si>
@@ -716,9 +716,6 @@
     <t>mbx_frm_mainApp_QuestionDontShowIncompatibleFileWarningAgain</t>
   </si>
   <si>
-    <t>mbx_frm_mainApp_QuestionAddToponomy</t>
-  </si>
-  <si>
     <t>mbx_frm_mainApp_QuestionFileQIsNotEmpty</t>
   </si>
   <si>
@@ -865,9 +862,30 @@
     <t>ckb_ResetMapToZero</t>
   </si>
   <si>
-    <t>Do you want to also assign Altitude &amp; Toponomy values?
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Don't Ask again</t>
+  </si>
+  <si>
+    <t>btn_Yes</t>
+  </si>
+  <si>
+    <t>btn_No</t>
+  </si>
+  <si>
+    <t>Do you want to also assign Altitude and Toponomy values?
 If you pick No, your lat/long data may become out of sync with any embedded toponomy data.
 If you click 'stop asking' it will take the answer as Yes and won't ask again this session. Restart to reset.</t>
+  </si>
+  <si>
+    <t>lbl_QuestionAddToponomy</t>
+  </si>
+  <si>
+    <t>ckb_QuestionAddToponomyDontAskAgain</t>
   </si>
 </sst>
 </file>
@@ -938,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -951,6 +969,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,11 +1285,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D057A75-CE07-4B70-81C2-6848CE46E100}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,6 +1404,22 @@
       </c>
       <c r="C13" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1719,9 +1754,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4D1A38-DF6E-4C32-B78F-C0F0A755128B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -1770,10 +1805,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2059,26 +2102,26 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2199,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
         <v>154</v>
@@ -2164,7 +2207,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
@@ -2226,11 +2269,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF047657-9098-41C9-A35C-1E73DCC7355E}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="A32:C32"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2500,6 +2543,15 @@
         <v>30</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2508,11 +2560,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA71A6DB-F956-47B0-AA2F-995ED03DF664}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,7 +2587,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>179</v>
@@ -2543,7 +2595,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>181</v>
@@ -2551,7 +2603,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>194</v>
@@ -2559,7 +2611,7 @@
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>180</v>
@@ -2567,7 +2619,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>182</v>
@@ -2575,7 +2627,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>198</v>
@@ -2583,7 +2635,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>197</v>
@@ -2591,7 +2643,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>196</v>
@@ -2599,7 +2651,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>195</v>
@@ -2607,7 +2659,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>183</v>
@@ -2682,7 +2734,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2727,66 +2779,66 @@
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2794,79 +2846,71 @@
         <v>241</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>244</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>245</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
         <v>257</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/extraFiles/english.xlsx
+++ b/extraFiles/english.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25813"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4C042-198A-4EE1-BF74-F718EA66C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B45410-4550-4A56-B774-2DFD4283087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="723" activeTab="1" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="723" activeTab="7" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Button" sheetId="1" r:id="rId1"/>
@@ -812,12 +812,6 @@
     <t>mbx_frm_mainApp_InfoNewExifToolVersionExists</t>
   </si>
   <si>
-    <t xml:space="preserve">There is a new exifTool version available for download. 
-If you click Yes, your default browser will open to exiftool.org where you can download manually. If you click No, this message will close (but will show again next time.)
-If you download, extract the zip file, rename exiftool(-k).exe to exiftool.exe and replace the current file in your GeoTagNinja installation folder (most likely Program Files.)
-New version: </t>
-  </si>
-  <si>
     <t>mbx_Helper_WarningGTNVerAPIResponse</t>
   </si>
   <si>
@@ -886,6 +880,12 @@
   </si>
   <si>
     <t>ckb_QuestionAddToponomyDontAskAgain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a new exifTool version available for download. 
+If you click Yes, your default browser will open to exiftool.org where you can download manually. If you click No, this message will close (and you won't be notified again until yet another new version is out.)
+If you download, extract the zip file, rename exiftool(-k).exe to exiftool.exe and replace the current file in your GeoTagNinja installation folder's Resources subfolder (most likely Program Files\GeoTagNinja\Resources.)
+New version: </t>
   </si>
 </sst>
 </file>
@@ -956,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -969,7 +969,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,18 +1407,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1755,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -1805,18 +1804,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2102,26 +2101,26 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2198,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
         <v>154</v>
@@ -2207,7 +2206,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
@@ -2269,11 +2268,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF047657-9098-41C9-A35C-1E73DCC7355E}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2544,13 +2543,15 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
+      <c r="A32" t="s">
         <v>273</v>
       </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2562,9 +2563,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2894,23 +2895,23 @@
         <v>252</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2926,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/extraFiles/english.xlsx
+++ b/extraFiles/english.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25822"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Sajat\Jobs\Nem_Aktualis\Apps\GeoTagNinja\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B45410-4550-4A56-B774-2DFD4283087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC7361B-DF47-43A6-AC53-E2F893EE3AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="723" activeTab="7" xr2:uid="{D4CAFA08-10F0-418D-A9E0-593D628FE0B2}"/>
   </bookViews>
@@ -21,12 +21,13 @@
     <sheet name="GroupBox" sheetId="13" r:id="rId6"/>
     <sheet name="Label" sheetId="3" r:id="rId7"/>
     <sheet name="messageBox" sheetId="2" r:id="rId8"/>
-    <sheet name="PictureBox" sheetId="9" r:id="rId9"/>
-    <sheet name="RichTextBox" sheetId="5" r:id="rId10"/>
-    <sheet name="TabControl" sheetId="12" r:id="rId11"/>
-    <sheet name="TabPage" sheetId="8" r:id="rId12"/>
-    <sheet name="ToolStrip" sheetId="10" r:id="rId13"/>
-    <sheet name="ToolStripMenuItem" sheetId="14" r:id="rId14"/>
+    <sheet name="MenuStrip" sheetId="17" r:id="rId9"/>
+    <sheet name="PictureBox" sheetId="9" r:id="rId10"/>
+    <sheet name="RichTextBox" sheetId="5" r:id="rId11"/>
+    <sheet name="TabControl" sheetId="12" r:id="rId12"/>
+    <sheet name="TabPage" sheetId="8" r:id="rId13"/>
+    <sheet name="ToolStrip" sheetId="10" r:id="rId14"/>
+    <sheet name="ToolStripMenuItem" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="281">
   <si>
     <t>tpg_Map</t>
   </si>
@@ -886,6 +887,21 @@
 If you click Yes, your default browser will open to exiftool.org where you can download manually. If you click No, this message will close (and you won't be notified again until yet another new version is out.)
 If you download, extract the zip file, rename exiftool(-k).exe to exiftool.exe and replace the current file in your GeoTagNinja installation folder's Resources subfolder (most likely Program Files\GeoTagNinja\Resources.)
 New version: </t>
+  </si>
+  <si>
+    <t>mns_File</t>
+  </si>
+  <si>
+    <t>mns_Settings</t>
+  </si>
+  <si>
+    <t>mns_Help</t>
+  </si>
+  <si>
+    <t>mbx_frm_Settings_cbx_Language_TextChanged</t>
+  </si>
+  <si>
+    <t>Please restart the app for the language change to take place.</t>
   </si>
 </sst>
 </file>
@@ -1428,6 +1444,46 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B470A451-D858-45D6-889B-8EF1082E77B2}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FBCB81-7530-4E24-8050-0BE2A14003FC}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C3"/>
@@ -1475,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474FB6B0-1C4C-4EF7-88E9-FF86336714E7}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C2"/>
@@ -1516,7 +1572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608740D4-3281-43A8-9891-68180F0D32F1}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:C6"/>
@@ -1588,14 +1644,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3CA633-2131-4005-BBF5-FD4C3AB97D80}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1637,7 +1693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9929B90B-AD05-4D51-B814-E736A13F0538}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:C11"/>
@@ -2561,11 +2617,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA71A6DB-F956-47B0-AA2F-995ED03DF664}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2914,25 +2970,33 @@
         <v>256</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B470A451-D858-45D6-889B-8EF1082E77B2}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415C8C92-2CBB-449A-9A72-B19209671BCB}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2948,10 +3012,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
